--- a/biology/Médecine/Tonotopie/Tonotopie.xlsx
+++ b/biology/Médecine/Tonotopie/Tonotopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tonotopie correspond à l'organisation de la perception des sons au niveau de la membrane basilaire de la cochlée, incluant une représentation du spectre auditif tout au long du conduit cochléaire selon la fréquence d'une onde sonore (stimulus auditif dans ce cas).
 </t>
@@ -511,7 +523,9 @@
           <t>Principes physiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vibrations dues à l'arrivée d'une onde sonore vont se propager plus ou moins loin dans la membrane au niveau de la base de la cochlée - fine et rigide, vers l'apex - large et souple.
 Les sons de haute fréquence produisent une vibration de forte intensité à la base en perdant alors beaucoup d'énergie et vont donc parcourir une faible distance.
@@ -545,7 +559,9 @@
           <t>Phénomènes biologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules ciliées de la cochlée possèdent des stéréocils qui baignent dans l'endolymphe et leur partie basolatérale dans la périlymphe.
 L'endolymphe est un milieu riche en K+ et la périlymphe riche en Ca2+. Lors de l'augmentation de tension des cils lors d'une vibration, il y a ouverture mécanique des canaux ioniques engendrant l'entrée de K+ par l'apex des stéréocils. Ces cellules sont les seules cellules dont la dépolarisation est liée à l'entrée de K+. Il y a ensuite activation des canaux calcique et potassique au niveau de la basale établissant la sortie du potassium et l'entrée de calcium. C'est l'entrée du calcium à ce moment qui crée la dépolarisation.
@@ -580,7 +596,9 @@
           <t>Tonotopie active</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La « tonotopie active » est la capacité d'amplifier un signal sonore, d'autant plus élevé que les cils sont longs. Les cils les plus longs étant dans la partie apicale de la cochlée, alors ce sont les basses fréquences qui seront plus amplifiées.  
 </t>
